--- a/team_specific_matrix/Louisiana Tech_A.xlsx
+++ b/team_specific_matrix/Louisiana Tech_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2171253822629969</v>
+        <v>0.2128851540616246</v>
       </c>
       <c r="C2">
-        <v>0.5351681957186545</v>
+        <v>0.5378151260504201</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01223241590214067</v>
+        <v>0.01400560224089636</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1529051987767584</v>
+        <v>0.1512605042016807</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08256880733944955</v>
+        <v>0.08403361344537816</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01092896174863388</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C3">
-        <v>0.03278688524590164</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04918032786885246</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6830601092896175</v>
+        <v>0.6881188118811881</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2240437158469945</v>
+        <v>0.2178217821782178</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7037037037037037</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2962962962962963</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07428571428571429</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01714285714285714</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05142857142857143</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2342857142857143</v>
+        <v>0.2412060301507538</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01714285714285714</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1371428571428571</v>
+        <v>0.1457286432160804</v>
       </c>
       <c r="R6">
-        <v>0.08</v>
+        <v>0.09045226130653267</v>
       </c>
       <c r="S6">
-        <v>0.3885714285714286</v>
+        <v>0.3718592964824121</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08695652173913043</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007246376811594203</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02173913043478261</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2318840579710145</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1884057971014493</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="R7">
-        <v>0.07246376811594203</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S7">
-        <v>0.391304347826087</v>
+        <v>0.382716049382716</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1459627329192547</v>
+        <v>0.1324324324324324</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01552795031055901</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.09627329192546584</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1273291925465838</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01552795031055901</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1708074534161491</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="R8">
-        <v>0.08385093167701864</v>
+        <v>0.08918918918918919</v>
       </c>
       <c r="S8">
-        <v>0.3447204968944099</v>
+        <v>0.3567567567567568</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06622516556291391</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006622516556291391</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="E9">
-        <v>0.006622516556291391</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="F9">
-        <v>0.05298013245033113</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1456953642384106</v>
+        <v>0.136094674556213</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006622516556291391</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2119205298013245</v>
+        <v>0.2189349112426036</v>
       </c>
       <c r="R9">
-        <v>0.05960264900662252</v>
+        <v>0.05917159763313609</v>
       </c>
       <c r="S9">
-        <v>0.4437086092715232</v>
+        <v>0.4260355029585799</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.146551724137931</v>
+        <v>0.1424196018376723</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0146551724137931</v>
+        <v>0.01607963246554365</v>
       </c>
       <c r="E10">
-        <v>0.003448275862068965</v>
+        <v>0.003062787136294028</v>
       </c>
       <c r="F10">
-        <v>0.06637931034482758</v>
+        <v>0.06431852986217458</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1241379310344828</v>
+        <v>0.1271056661562021</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0146551724137931</v>
+        <v>0.01607963246554365</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2146551724137931</v>
+        <v>0.2082695252679939</v>
       </c>
       <c r="R10">
-        <v>0.08189655172413793</v>
+        <v>0.08116385911179173</v>
       </c>
       <c r="S10">
-        <v>0.3336206896551724</v>
+        <v>0.3415007656967841</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1651785714285714</v>
+        <v>0.1686274509803922</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08482142857142858</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="K11">
-        <v>0.1919642857142857</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="L11">
-        <v>0.5535714285714286</v>
+        <v>0.5450980392156862</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004464285714285714</v>
+        <v>0.007843137254901961</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6692307692307692</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2769230769230769</v>
+        <v>0.2620689655172414</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02307692307692308</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03076923076923077</v>
+        <v>0.02758620689655172</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03703703703703703</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07407407407407407</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01290322580645161</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1483870967741935</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I15">
-        <v>0.06451612903225806</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K15">
-        <v>0.05161290322580645</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01935483870967742</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03225806451612903</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2709677419354839</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02604166666666667</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.125</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="I16">
-        <v>0.08333333333333333</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.46875</v>
+        <v>0.4449760765550239</v>
       </c>
       <c r="K16">
-        <v>0.08854166666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.015625</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.015625</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1770833333333333</v>
+        <v>0.1770334928229665</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1692708333333333</v>
+        <v>0.17096018735363</v>
       </c>
       <c r="I17">
-        <v>0.0703125</v>
+        <v>0.07494145199063232</v>
       </c>
       <c r="J17">
-        <v>0.4817708333333333</v>
+        <v>0.4824355971896955</v>
       </c>
       <c r="K17">
-        <v>0.07552083333333333</v>
+        <v>0.08430913348946135</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0078125</v>
+        <v>0.00936768149882904</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04427083333333334</v>
+        <v>0.04215456674473068</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1510416666666667</v>
+        <v>0.1358313817330211</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006493506493506494</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1623376623376623</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="I18">
-        <v>0.1103896103896104</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="J18">
-        <v>0.435064935064935</v>
+        <v>0.4180790960451977</v>
       </c>
       <c r="K18">
-        <v>0.06493506493506493</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01948051948051948</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07792207792207792</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1233766233766234</v>
+        <v>0.1129943502824859</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01360544217687075</v>
+        <v>0.01374570446735395</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1807580174927114</v>
+        <v>0.1829896907216495</v>
       </c>
       <c r="I19">
-        <v>0.08066083576287658</v>
+        <v>0.0781786941580756</v>
       </c>
       <c r="J19">
-        <v>0.4042759961127308</v>
+        <v>0.4063573883161512</v>
       </c>
       <c r="K19">
-        <v>0.1107871720116618</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01652089407191448</v>
+        <v>0.01632302405498282</v>
       </c>
       <c r="N19">
-        <v>0.0009718172983479105</v>
+        <v>0.000859106529209622</v>
       </c>
       <c r="O19">
-        <v>0.07094266277939747</v>
+        <v>0.07302405498281787</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1214771622934888</v>
+        <v>0.1202749140893471</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Louisiana Tech_A.xlsx
+++ b/team_specific_matrix/Louisiana Tech_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2128851540616246</v>
+        <v>0.2098445595854922</v>
       </c>
       <c r="C2">
-        <v>0.5378151260504201</v>
+        <v>0.5440414507772021</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01400560224089636</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1512605042016807</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08403361344537816</v>
+        <v>0.08549222797927461</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009900990099009901</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C3">
-        <v>0.0396039603960396</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04455445544554455</v>
+        <v>0.04090909090909091</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6881188118811881</v>
+        <v>0.7</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2178217821782178</v>
+        <v>0.2136363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.675</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3636363636363636</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07537688442211055</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01507537688442211</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04522613065326633</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2412060301507538</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01507537688442211</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1457286432160804</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="R6">
-        <v>0.09045226130653267</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="S6">
-        <v>0.3718592964824121</v>
+        <v>0.3726415094339622</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08641975308641975</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006172839506172839</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03703703703703703</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2222222222222222</v>
+        <v>0.2102272727272727</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.191358024691358</v>
+        <v>0.1875</v>
       </c>
       <c r="R7">
-        <v>0.07407407407407407</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="S7">
-        <v>0.382716049382716</v>
+        <v>0.3863636363636364</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1324324324324324</v>
+        <v>0.1348600508905853</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02162162162162162</v>
+        <v>0.02544529262086514</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1243243243243243</v>
+        <v>0.1195928753180662</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01351351351351351</v>
+        <v>0.01272264631043257</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1621621621621622</v>
+        <v>0.1628498727735369</v>
       </c>
       <c r="R8">
-        <v>0.08918918918918919</v>
+        <v>0.08651399491094147</v>
       </c>
       <c r="S8">
-        <v>0.3567567567567568</v>
+        <v>0.3587786259541985</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07692307692307693</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005917159763313609</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="E9">
-        <v>0.005917159763313609</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="F9">
-        <v>0.05917159763313609</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.136094674556213</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01183431952662722</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2189349112426036</v>
+        <v>0.2021276595744681</v>
       </c>
       <c r="R9">
-        <v>0.05917159763313609</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="S9">
-        <v>0.4260355029585799</v>
+        <v>0.4202127659574468</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1424196018376723</v>
+        <v>0.1427546628407461</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01607963246554365</v>
+        <v>0.01865136298421808</v>
       </c>
       <c r="E10">
-        <v>0.003062787136294028</v>
+        <v>0.002869440459110474</v>
       </c>
       <c r="F10">
-        <v>0.06431852986217458</v>
+        <v>0.06384505021520803</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1271056661562021</v>
+        <v>0.1262553802008608</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01607963246554365</v>
+        <v>0.0157819225251076</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2082695252679939</v>
+        <v>0.2087517934002869</v>
       </c>
       <c r="R10">
-        <v>0.08116385911179173</v>
+        <v>0.08249641319942611</v>
       </c>
       <c r="S10">
-        <v>0.3415007656967841</v>
+        <v>0.3385939741750359</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1686274509803922</v>
+        <v>0.1654929577464789</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08235294117647059</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="K11">
-        <v>0.196078431372549</v>
+        <v>0.2007042253521127</v>
       </c>
       <c r="L11">
-        <v>0.5450980392156862</v>
+        <v>0.5422535211267606</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007843137254901961</v>
+        <v>0.007042253521126761</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6896551724137931</v>
+        <v>0.6875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2620689655172414</v>
+        <v>0.26875</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02068965517241379</v>
+        <v>0.01875</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02758620689655172</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G13">
-        <v>0.696969696969697</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2121212121212121</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06060606060606061</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01111111111111111</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1333333333333333</v>
+        <v>0.1306532663316583</v>
       </c>
       <c r="I15">
-        <v>0.06111111111111111</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="J15">
-        <v>0.4166666666666667</v>
+        <v>0.4020100502512563</v>
       </c>
       <c r="K15">
-        <v>0.04444444444444445</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02222222222222222</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03333333333333333</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2777777777777778</v>
+        <v>0.271356783919598</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02392344497607655</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1339712918660287</v>
+        <v>0.1298701298701299</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="J16">
-        <v>0.4449760765550239</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="K16">
-        <v>0.09090909090909091</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02392344497607655</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01435406698564593</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1770334928229665</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.17096018735363</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="I17">
-        <v>0.07494145199063232</v>
+        <v>0.07743362831858407</v>
       </c>
       <c r="J17">
-        <v>0.4824355971896955</v>
+        <v>0.4756637168141593</v>
       </c>
       <c r="K17">
-        <v>0.08430913348946135</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.00936768149882904</v>
+        <v>0.01106194690265487</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04215456674473068</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1358313817330211</v>
+        <v>0.1349557522123894</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01129943502824859</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1807909604519774</v>
+        <v>0.1865284974093264</v>
       </c>
       <c r="I18">
-        <v>0.1016949152542373</v>
+        <v>0.1036269430051813</v>
       </c>
       <c r="J18">
-        <v>0.4180790960451977</v>
+        <v>0.3989637305699482</v>
       </c>
       <c r="K18">
-        <v>0.07344632768361582</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01694915254237288</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0847457627118644</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1129943502824859</v>
+        <v>0.1191709844559585</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01374570446735395</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1829896907216495</v>
+        <v>0.1819645732689211</v>
       </c>
       <c r="I19">
-        <v>0.0781786941580756</v>
+        <v>0.07971014492753623</v>
       </c>
       <c r="J19">
-        <v>0.4063573883161512</v>
+        <v>0.4082125603864734</v>
       </c>
       <c r="K19">
-        <v>0.1082474226804124</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01632302405498282</v>
+        <v>0.01610305958132045</v>
       </c>
       <c r="N19">
-        <v>0.000859106529209622</v>
+        <v>0.0008051529790660225</v>
       </c>
       <c r="O19">
-        <v>0.07302405498281787</v>
+        <v>0.07165861513687601</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1202749140893471</v>
+        <v>0.1159420289855072</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Louisiana Tech_A.xlsx
+++ b/team_specific_matrix/Louisiana Tech_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2098445595854922</v>
+        <v>0.2080200501253133</v>
       </c>
       <c r="C2">
-        <v>0.5440414507772021</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0155440414507772</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1450777202072539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08549222797927461</v>
+        <v>0.09022556390977443</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00909090909090909</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="C3">
-        <v>0.03636363636363636</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04090909090909091</v>
+        <v>0.03964757709251102</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7</v>
+        <v>0.7048458149779736</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2136363636363636</v>
+        <v>0.2070484581497797</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.675</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.325</v>
+        <v>0.3255813953488372</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07547169811320754</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01415094339622642</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04716981132075472</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2358490566037736</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01886792452830189</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1415094339622641</v>
+        <v>0.1396396396396396</v>
       </c>
       <c r="R6">
-        <v>0.09433962264150944</v>
+        <v>0.09009009009009009</v>
       </c>
       <c r="S6">
-        <v>0.3726415094339622</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1022727272727273</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005681818181818182</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03409090909090909</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2102272727272727</v>
+        <v>0.2021857923497268</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005681818181818182</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1875</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="R7">
-        <v>0.06818181818181818</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="S7">
-        <v>0.3863636363636364</v>
+        <v>0.3934426229508197</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1348600508905853</v>
+        <v>0.1326781326781327</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02544529262086514</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.09923664122137404</v>
+        <v>0.09582309582309582</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1195928753180662</v>
+        <v>0.1154791154791155</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01272264631043257</v>
+        <v>0.01228501228501228</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1628498727735369</v>
+        <v>0.1646191646191646</v>
       </c>
       <c r="R8">
-        <v>0.08651399491094147</v>
+        <v>0.08353808353808354</v>
       </c>
       <c r="S8">
-        <v>0.3587786259541985</v>
+        <v>0.3685503685503685</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06914893617021277</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005319148936170213</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E9">
-        <v>0.005319148936170213</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="F9">
-        <v>0.05851063829787234</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1436170212765958</v>
+        <v>0.1479591836734694</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2021276595744681</v>
+        <v>0.1989795918367347</v>
       </c>
       <c r="R9">
-        <v>0.07446808510638298</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="S9">
-        <v>0.4202127659574468</v>
+        <v>0.413265306122449</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1427546628407461</v>
+        <v>0.1422623178348369</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01865136298421808</v>
+        <v>0.01804302567661346</v>
       </c>
       <c r="E10">
-        <v>0.002869440459110474</v>
+        <v>0.002775850104094379</v>
       </c>
       <c r="F10">
-        <v>0.06384505021520803</v>
+        <v>0.06453851492019431</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1262553802008608</v>
+        <v>0.1269951422623178</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0157819225251076</v>
+        <v>0.01665510062456627</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2087517934002869</v>
+        <v>0.2095766828591256</v>
       </c>
       <c r="R10">
-        <v>0.08249641319942611</v>
+        <v>0.08119361554476058</v>
       </c>
       <c r="S10">
-        <v>0.3385939741750359</v>
+        <v>0.3379597501734906</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1654929577464789</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08450704225352113</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="K11">
-        <v>0.2007042253521127</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="L11">
-        <v>0.5422535211267606</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007042253521126761</v>
+        <v>0.00684931506849315</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6875</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.26875</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01875</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.025</v>
+        <v>0.02424242424242424</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02857142857142857</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G13">
-        <v>0.6857142857142857</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2285714285714286</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01507537688442211</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1306532663316583</v>
+        <v>0.1268292682926829</v>
       </c>
       <c r="I15">
-        <v>0.08040201005025126</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="J15">
-        <v>0.4020100502512563</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="K15">
-        <v>0.04522613065326633</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02010050251256281</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03517587939698492</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.271356783919598</v>
+        <v>0.2829268292682927</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02164502164502164</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1298701298701299</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="I16">
-        <v>0.08658008658008658</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="J16">
-        <v>0.4415584415584415</v>
+        <v>0.4495798319327731</v>
       </c>
       <c r="K16">
-        <v>0.09523809523809523</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02164502164502164</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02164502164502164</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1818181818181818</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.002127659574468085</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.168141592920354</v>
+        <v>0.1659574468085106</v>
       </c>
       <c r="I17">
-        <v>0.07743362831858407</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="J17">
-        <v>0.4756637168141593</v>
+        <v>0.4723404255319149</v>
       </c>
       <c r="K17">
-        <v>0.08849557522123894</v>
+        <v>0.08723404255319149</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01106194690265487</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04424778761061947</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1349557522123894</v>
+        <v>0.1404255319148936</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01036269430051814</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1865284974093264</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="I18">
-        <v>0.1036269430051813</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J18">
-        <v>0.3989637305699482</v>
+        <v>0.3979591836734694</v>
       </c>
       <c r="K18">
-        <v>0.07772020725388601</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0155440414507772</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08808290155440414</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1191709844559585</v>
+        <v>0.1173469387755102</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01449275362318841</v>
+        <v>0.01469450889404486</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1819645732689211</v>
+        <v>0.1832946635730859</v>
       </c>
       <c r="I19">
-        <v>0.07971014492753623</v>
+        <v>0.07965970610982212</v>
       </c>
       <c r="J19">
-        <v>0.4082125603864734</v>
+        <v>0.4075792730085073</v>
       </c>
       <c r="K19">
-        <v>0.1111111111111111</v>
+        <v>0.1098221191028616</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01610305958132045</v>
+        <v>0.01701469450889405</v>
       </c>
       <c r="N19">
-        <v>0.0008051529790660225</v>
+        <v>0.0007733952049497294</v>
       </c>
       <c r="O19">
-        <v>0.07165861513687601</v>
+        <v>0.0711523588553751</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1159420289855072</v>
+        <v>0.1160092807424594</v>
       </c>
     </row>
   </sheetData>
